--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N2">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q2">
-        <v>12.68056389319644</v>
+        <v>33.48409803911111</v>
       </c>
       <c r="R2">
-        <v>114.125075038768</v>
+        <v>301.356882352</v>
       </c>
       <c r="S2">
-        <v>0.002485778198116646</v>
+        <v>0.004513094196059744</v>
       </c>
       <c r="T2">
-        <v>0.002485778198116646</v>
+        <v>0.004513094196059744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q3">
-        <v>47.38761440688445</v>
+        <v>78.77360248256112</v>
       </c>
       <c r="R3">
-        <v>426.4885296619601</v>
+        <v>708.9624223430501</v>
       </c>
       <c r="S3">
-        <v>0.009289421176024574</v>
+        <v>0.01061735895503314</v>
       </c>
       <c r="T3">
-        <v>0.009289421176024574</v>
+        <v>0.01061735895503314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N4">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O4">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P4">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q4">
-        <v>8.356114401159555</v>
+        <v>15.65645099315111</v>
       </c>
       <c r="R4">
-        <v>75.205029610436</v>
+        <v>140.90805893836</v>
       </c>
       <c r="S4">
-        <v>0.001638053888953278</v>
+        <v>0.002110226711961922</v>
       </c>
       <c r="T4">
-        <v>0.001638053888953278</v>
+        <v>0.002110226711961922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N5">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q5">
-        <v>33.58021924053244</v>
+        <v>11.725308524225</v>
       </c>
       <c r="R5">
-        <v>302.221973164792</v>
+        <v>105.527776718025</v>
       </c>
       <c r="S5">
-        <v>0.006582749598452699</v>
+        <v>0.001580374713569393</v>
       </c>
       <c r="T5">
-        <v>0.006582749598452699</v>
+        <v>0.001580374713569393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N6">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q6">
-        <v>16.79267900693245</v>
+        <v>40.04224235895</v>
       </c>
       <c r="R6">
-        <v>151.134111062392</v>
+        <v>360.38018123055</v>
       </c>
       <c r="S6">
-        <v>0.003291878477565201</v>
+        <v>0.005397021934899107</v>
       </c>
       <c r="T6">
-        <v>0.003291878477565201</v>
+        <v>0.005397021934899107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N7">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q7">
-        <v>6.127280452479112</v>
+        <v>11.13078351880666</v>
       </c>
       <c r="R7">
-        <v>55.145524072312</v>
+        <v>100.17705166926</v>
       </c>
       <c r="S7">
-        <v>0.001201134294247818</v>
+        <v>0.001500242725297472</v>
       </c>
       <c r="T7">
-        <v>0.001201134294247818</v>
+        <v>0.001500242725297472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N8">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q8">
-        <v>339.3584801081791</v>
+        <v>539.067169565511</v>
       </c>
       <c r="R8">
-        <v>3054.226320973612</v>
+        <v>4851.6045260896</v>
       </c>
       <c r="S8">
-        <v>0.06652463709847456</v>
+        <v>0.07265720317180882</v>
       </c>
       <c r="T8">
-        <v>0.06652463709847456</v>
+        <v>0.07265720317180883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q9">
         <v>1268.191930305321</v>
@@ -1013,10 +1013,10 @@
         <v>11413.72737274789</v>
       </c>
       <c r="S9">
-        <v>0.2486043899886681</v>
+        <v>0.1709309784443185</v>
       </c>
       <c r="T9">
-        <v>0.2486043899886681</v>
+        <v>0.1709309784443185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N10">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O10">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P10">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q10">
-        <v>223.6271436090499</v>
+        <v>252.0563257359031</v>
       </c>
       <c r="R10">
-        <v>2012.644292481449</v>
+        <v>2268.506931623128</v>
       </c>
       <c r="S10">
-        <v>0.04383775696195412</v>
+        <v>0.03397296052084568</v>
       </c>
       <c r="T10">
-        <v>0.04383775696195412</v>
+        <v>0.03397296052084569</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N11">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q11">
-        <v>898.677082434853</v>
+        <v>188.768079434405</v>
       </c>
       <c r="R11">
-        <v>8088.093741913678</v>
+        <v>1698.912714909645</v>
       </c>
       <c r="S11">
-        <v>0.1761681828567737</v>
+        <v>0.02544276756989729</v>
       </c>
       <c r="T11">
-        <v>0.1761681828567737</v>
+        <v>0.0254427675698973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N12">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q12">
-        <v>449.4073033924531</v>
+        <v>644.6480423717099</v>
       </c>
       <c r="R12">
-        <v>4044.665730532078</v>
+        <v>5801.83238134539</v>
       </c>
       <c r="S12">
-        <v>0.0880975709169156</v>
+        <v>0.08688773205510161</v>
       </c>
       <c r="T12">
-        <v>0.0880975709169156</v>
+        <v>0.08688773205510163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N13">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q13">
-        <v>163.9788734210398</v>
+        <v>179.1967028504386</v>
       </c>
       <c r="R13">
-        <v>1475.809860789358</v>
+        <v>1612.770325653948</v>
       </c>
       <c r="S13">
-        <v>0.03214487241537021</v>
+        <v>0.02415270671596761</v>
       </c>
       <c r="T13">
-        <v>0.03214487241537021</v>
+        <v>0.02415270671596762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N14">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q14">
-        <v>73.05215166301423</v>
+        <v>429.1608521660444</v>
       </c>
       <c r="R14">
-        <v>657.4693649671281</v>
+        <v>3862.4476694944</v>
       </c>
       <c r="S14">
-        <v>0.01432045510427667</v>
+        <v>0.05784367698434936</v>
       </c>
       <c r="T14">
-        <v>0.01432045510427667</v>
+        <v>0.05784367698434935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q15">
-        <v>272.9978906109623</v>
+        <v>1009.629894468635</v>
       </c>
       <c r="R15">
-        <v>2456.98101549866</v>
+        <v>9086.66905021771</v>
       </c>
       <c r="S15">
-        <v>0.05351593275569249</v>
+        <v>0.1360811574369577</v>
       </c>
       <c r="T15">
-        <v>0.05351593275569249</v>
+        <v>0.1360811574369577</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N16">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O16">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P16">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q16">
-        <v>48.13919488821178</v>
+        <v>200.6664728513324</v>
       </c>
       <c r="R16">
-        <v>433.252753993906</v>
+        <v>1805.998255661992</v>
       </c>
       <c r="S16">
-        <v>0.009436753927970713</v>
+        <v>0.02704647122079594</v>
       </c>
       <c r="T16">
-        <v>0.009436753927970713</v>
+        <v>0.02704647122079594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N17">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q17">
-        <v>193.4541152505702</v>
+        <v>150.281587166795</v>
       </c>
       <c r="R17">
-        <v>1741.087037255132</v>
+        <v>1352.534284501155</v>
       </c>
       <c r="S17">
-        <v>0.0379229209423268</v>
+        <v>0.02025543462526291</v>
       </c>
       <c r="T17">
-        <v>0.0379229209423268</v>
+        <v>0.02025543462526291</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N18">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q18">
-        <v>96.74185974497024</v>
+        <v>513.21564144669</v>
       </c>
       <c r="R18">
-        <v>870.6767377047322</v>
+        <v>4618.94077302021</v>
       </c>
       <c r="S18">
-        <v>0.01896436213915775</v>
+        <v>0.06917285124523014</v>
       </c>
       <c r="T18">
-        <v>0.01896436213915775</v>
+        <v>0.06917285124523014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N19">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q19">
-        <v>35.29898391478356</v>
+        <v>142.6616459737746</v>
       </c>
       <c r="R19">
-        <v>317.690855233052</v>
+        <v>1283.954813763972</v>
       </c>
       <c r="S19">
-        <v>0.00691968002133703</v>
+        <v>0.01922839449617332</v>
       </c>
       <c r="T19">
-        <v>0.00691968002133703</v>
+        <v>0.01922839449617333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N20">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q20">
-        <v>36.048121782424</v>
+        <v>16.7822171648</v>
       </c>
       <c r="R20">
-        <v>324.433096041816</v>
+        <v>151.0399544832</v>
       </c>
       <c r="S20">
-        <v>0.00706653394632402</v>
+        <v>0.002261961089559744</v>
       </c>
       <c r="T20">
-        <v>0.007066533946324022</v>
+        <v>0.002261961089559745</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q21">
-        <v>134.71281793978</v>
+        <v>39.48129951632</v>
       </c>
       <c r="R21">
-        <v>1212.41536145802</v>
+        <v>355.33169564688</v>
       </c>
       <c r="S21">
-        <v>0.02640783080799974</v>
+        <v>0.005321416258304871</v>
       </c>
       <c r="T21">
-        <v>0.02640783080799974</v>
+        <v>0.005321416258304872</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N22">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O22">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P22">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q22">
-        <v>23.754639943298</v>
+        <v>7.847007265663999</v>
       </c>
       <c r="R22">
-        <v>213.791759489682</v>
+        <v>70.623065390976</v>
       </c>
       <c r="S22">
-        <v>0.004656635664825812</v>
+        <v>0.001057644823096061</v>
       </c>
       <c r="T22">
-        <v>0.004656635664825813</v>
+        <v>0.001057644823096061</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N23">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q23">
-        <v>95.461356676156</v>
+        <v>5.87672015976</v>
       </c>
       <c r="R23">
-        <v>859.152210085404</v>
+        <v>52.89048143784</v>
       </c>
       <c r="S23">
-        <v>0.01871334438964049</v>
+        <v>0.0007920832036120815</v>
       </c>
       <c r="T23">
-        <v>0.0187133443896405</v>
+        <v>0.0007920832036120815</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N24">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q24">
-        <v>47.73798255295601</v>
+        <v>20.06915659632</v>
       </c>
       <c r="R24">
-        <v>429.641842976604</v>
+        <v>180.62240936688</v>
       </c>
       <c r="S24">
-        <v>0.009358104044243589</v>
+        <v>0.002704985335094614</v>
       </c>
       <c r="T24">
-        <v>0.00935810404424359</v>
+        <v>0.002704985335094615</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N25">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q25">
-        <v>17.418543355516</v>
+        <v>5.578744453823998</v>
       </c>
       <c r="R25">
-        <v>156.766890199644</v>
+        <v>50.20870008441599</v>
       </c>
       <c r="S25">
-        <v>0.003414567024051859</v>
+        <v>0.0007519210816562865</v>
       </c>
       <c r="T25">
-        <v>0.00341456702405186</v>
+        <v>0.0007519210816562867</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N26">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q26">
-        <v>29.57830180100044</v>
+        <v>45.35867456888888</v>
       </c>
       <c r="R26">
-        <v>266.204716209004</v>
+        <v>408.2280711199999</v>
       </c>
       <c r="S26">
-        <v>0.005798251432153578</v>
+        <v>0.006113587730471518</v>
       </c>
       <c r="T26">
-        <v>0.005798251432153578</v>
+        <v>0.006113587730471519</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q27">
-        <v>110.5349235540145</v>
+        <v>106.7093458946389</v>
       </c>
       <c r="R27">
-        <v>994.8143119861301</v>
+        <v>960.38411305175</v>
       </c>
       <c r="S27">
-        <v>0.02166822433255356</v>
+        <v>0.01438262810782318</v>
       </c>
       <c r="T27">
-        <v>0.02166822433255356</v>
+        <v>0.01438262810782318</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N28">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O28">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P28">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q28">
-        <v>19.49122103109255</v>
+        <v>21.20875003628888</v>
       </c>
       <c r="R28">
-        <v>175.420989279833</v>
+        <v>190.8787503266</v>
       </c>
       <c r="S28">
-        <v>0.00382087521515964</v>
+        <v>0.002858583396293215</v>
       </c>
       <c r="T28">
-        <v>0.00382087521515964</v>
+        <v>0.002858583396293216</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N29">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q29">
-        <v>78.32820902965844</v>
+        <v>15.883493500375</v>
       </c>
       <c r="R29">
-        <v>704.953881266926</v>
+        <v>142.951441503375</v>
       </c>
       <c r="S29">
-        <v>0.01535472364978304</v>
+        <v>0.002140828229745502</v>
       </c>
       <c r="T29">
-        <v>0.01535472364978304</v>
+        <v>0.002140828229745502</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N30">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q30">
-        <v>39.17009778885845</v>
+        <v>54.24255531824999</v>
       </c>
       <c r="R30">
-        <v>352.5308800997261</v>
+        <v>488.18299786425</v>
       </c>
       <c r="S30">
-        <v>0.007678536689829916</v>
+        <v>0.007310985689395093</v>
       </c>
       <c r="T30">
-        <v>0.007678536689829916</v>
+        <v>0.007310985689395094</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N31">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q31">
-        <v>14.29231002416511</v>
+        <v>15.07813012423333</v>
       </c>
       <c r="R31">
-        <v>128.630790217486</v>
+        <v>135.7031711181</v>
       </c>
       <c r="S31">
-        <v>0.002801729714705775</v>
+        <v>0.002032278769212368</v>
       </c>
       <c r="T31">
-        <v>0.002801729714705775</v>
+        <v>0.002032278769212369</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N32">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q32">
-        <v>27.08857121099378</v>
+        <v>238.1021330282666</v>
       </c>
       <c r="R32">
-        <v>243.797140898944</v>
+        <v>2142.919197254399</v>
       </c>
       <c r="S32">
-        <v>0.005310188119516257</v>
+        <v>0.03209216964375611</v>
       </c>
       <c r="T32">
-        <v>0.005310188119516257</v>
+        <v>0.03209216964375611</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q33">
-        <v>101.2307321812978</v>
+        <v>560.1513517106067</v>
       </c>
       <c r="R33">
-        <v>911.07658963168</v>
+        <v>5041.36216539546</v>
       </c>
       <c r="S33">
-        <v>0.01984431837220324</v>
+        <v>0.07549899690794445</v>
       </c>
       <c r="T33">
-        <v>0.01984431837220324</v>
+        <v>0.07549899690794447</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N34">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O34">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P34">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q34">
-        <v>17.85056263345422</v>
+        <v>111.3314855537546</v>
       </c>
       <c r="R34">
-        <v>160.655063701088</v>
+        <v>1001.983369983792</v>
       </c>
       <c r="S34">
-        <v>0.00349925601038638</v>
+        <v>0.01500561492516457</v>
       </c>
       <c r="T34">
-        <v>0.00349925601038638</v>
+        <v>0.01500561492516457</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N35">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q35">
-        <v>71.73499284728177</v>
+        <v>83.37751749416999</v>
       </c>
       <c r="R35">
-        <v>645.614935625536</v>
+        <v>750.3976574475299</v>
       </c>
       <c r="S35">
-        <v>0.01406225170770993</v>
+        <v>0.01123788939589419</v>
       </c>
       <c r="T35">
-        <v>0.01406225170770993</v>
+        <v>0.0112378893958942</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N36">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q36">
-        <v>35.87298521848178</v>
+        <v>284.73645327894</v>
       </c>
       <c r="R36">
-        <v>322.856866966336</v>
+        <v>2562.62807951046</v>
       </c>
       <c r="S36">
-        <v>0.007032201825449316</v>
+        <v>0.03837769299321803</v>
       </c>
       <c r="T36">
-        <v>0.007032201825449316</v>
+        <v>0.03837769299321804</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N37">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q37">
-        <v>13.08926592418844</v>
+        <v>79.14990856280798</v>
       </c>
       <c r="R37">
-        <v>117.803393317696</v>
+        <v>712.3491770652719</v>
       </c>
       <c r="S37">
-        <v>0.002565896291185914</v>
+        <v>0.01066807869622851</v>
       </c>
       <c r="T37">
-        <v>0.002565896291185914</v>
+        <v>0.01066807869622851</v>
       </c>
     </row>
   </sheetData>
